--- a/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
+++ b/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
@@ -586,15 +586,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.82</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -681,10 +683,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.17</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -776,15 +780,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0.98</v>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -972,15 +978,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.96</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1069,10 +1077,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0.35</v>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1168,15 +1178,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0.52</v>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1265,10 +1277,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.33</v>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1364,15 +1378,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.78</v>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1463,10 +1479,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1560,10 +1578,12 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0.05</v>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1655,15 +1675,17 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.97</v>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K13" t="n">

--- a/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
+++ b/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
@@ -846,17 +846,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q5S248</t>
+          <t>Q9UL52</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tmprss11e</t>
+          <t>TMPRSS11E</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TM11E_MOUSE</t>
+          <t>TM11E_HUMAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -879,22 +879,24 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0.54</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Downregulated</t>
+          <t>Upregulated</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -910,7 +912,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -921,17 +923,15 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>TMPRSS11E \| TMPRSS11B \| TMPRSS11A \| ST14 \| TMPRSS6 \| TMPRSS11D \| PRSS21 \| PRSS41 \| TMPRSS11F \| HPN \| TMPRSS15 \| TMPRSS9 \| TMPRSS5 \| TMPRSS3 \| PRSS22 \| TMPRSS2 \| TMPRSS7 \| TMPRSS13</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>

--- a/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
+++ b/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,100 +451,80 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Swiss Prot</t>
+          <t>(transcriptomics) AUC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Up/Down Regulated</t>
+          <t xml:space="preserve">(transcriptomics) Fold Change </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t xml:space="preserve">(transcriptomics) Up/Down Regulated </t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Biomarker Application</t>
+          <t>Seq Length</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>(transcriptomics) AUC</t>
+          <t>Glycosylation Sites</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">(transcriptomics) Fold Change </t>
+          <t>Modified Residues</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">(transcriptomics) Up/Down Regulated </t>
+          <t>Subcellular Location</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Seq Length</t>
+          <t>Discotope Epitope Count</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Glycosylation Sites</t>
+          <t>Critical Aggregation Sites (&gt;50)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Modified Residues</t>
+          <t>Interactor Count</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Subcellular Location</t>
+          <t>Interactors</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Discotope Epitope Count</t>
+          <t>Homolog Count</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Critical Aggregation Sites (&gt;50)</t>
+          <t>Homologs</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Interactor Count</t>
+          <t>Max n_uniprots Homo</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Interactors</t>
+          <t>Max n_uniprots Hetero</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Homolog Count</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Homologs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Max n_uniprots Homo</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Max n_uniprots Hetero</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Number of Isoforms</t>
         </is>
@@ -566,84 +546,64 @@
           <t>A4_HUMAN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.82</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>770</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>770</v>
+          <t>Cell membrane \| Membrane \| Perikaryon \| Cell projection \| Growth cone \| Membrane \| Clathrin-coated pit \| Early endosome \| Cytoplasmic vesicle \| Endoplasmic reticulum \| Golgi apparatus \| Early endosome \| Early endosome \| Secreted \| Cell surface \| Cell surface \| Nucleus \| Cytoplasm</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L2" t="n">
+        <v>26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SORL1 \| APBB1 \| APOE \| BACE1 \| PSEN1 \| TNFRSF21 \| CLU \| PRNP \| NAE1 \| APBA2 \| NCSTN \| APBA1 \| IDE \| MAPT \| APBB2 \| KAT5 \| SNCA \| FPR2 \| PSENEN \| SPON1 \| APH1A \| CD74 \| APBB3 \| LRP1 \| APOA1 \| TTR \| GAPDH \| PITRM1 \| LCN2 \| PSEN2 \| KLK6 \| APBA3 \| MAPK8IP1 \| NGFR \| EP300 \| F11 \| ADAM10 \| CNTN4 \| GRB2 \| KLC1 \| CNTN2 \| ITM2B \| IAPP \| ACHE \| APPBP2 \| SHC1 \| GNB1 \| GSK3A \| CST3 \| SYP</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>APLP1 \| APLP2</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>10</v>
       </c>
-      <c r="M2" t="n">
-        <v>11</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Cell membrane \| Membrane \| Perikaryon \| Cell projection \| Growth cone \| Membrane \| Clathrin-coated pit \| Early endosome \| Cytoplasmic vesicle \| Endoplasmic reticulum \| Golgi apparatus \| Early endosome \| Early endosome \| Secreted \| Cell surface \| Cell surface \| Nucleus \| Cytoplasm</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>50</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>SORL1 \| APBB1 \| APOE \| BACE1 \| PSEN1 \| TNFRSF21 \| CLU \| PRNP \| NAE1 \| APBA2 \| NCSTN \| APBA1 \| IDE \| MAPT \| APBB2 \| KAT5 \| SNCA \| FPR2 \| PSENEN \| SPON1 \| APH1A \| CD74 \| APBB3 \| LRP1 \| APOA1 \| TTR \| GAPDH \| PITRM1 \| LCN2 \| PSEN2 \| KLK6 \| APBA3 \| MAPK8IP1 \| NGFR \| EP300 \| F11 \| ADAM10 \| CNTN4 \| GRB2 \| KLC1 \| CNTN2 \| ITM2B \| IAPP \| ACHE \| APPBP2 \| SHC1 \| GNB1 \| GSK3A \| CST3 \| SYP</t>
-        </is>
+      <c r="R2" t="n">
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>APLP1 \| APLP2</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>10</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -663,84 +623,64 @@
           <t>CO1A1_HUMAN</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Downregulated</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1464</v>
       </c>
       <c r="H3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>125</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Downregulated</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1464</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>COL3A1 \| COL1A2 \| COL5A2 \| COL5A1 \| CD44 \| ITGB1 \| ITGA2 \| LUM \| COL6A3 \| BGN \| FN1 \| CRTAP \| COL6A1 \| SPARC \| COL11A1 \| RUNX2 \| COL6A2 \| P3H1 \| ITGA5 \| GP6 \| ADAMTS2 \| ITGB3 \| FBN1 \| ACTA2 \| DCN \| SERPINH1 \| POSTN</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>37</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>COL7A1 \| COL13A1 \| COL9A1 \| COL15A1 \| COL27A1 \| COL25A1 \| COL17A1 \| COL2A1 \| COL4A2 \| COL3A1 \| COL18A1 \| COL4A5 \| EDA \| COL16A1 \| EMID1 \| COL1A2 \| COL6A1 \| COL4A4 \| COL4A6 \| COL21A1 \| COL5A1 \| COL9A2 \| COL11A1 \| COL24A1 \| COL6A2 \| COL26A1 \| COL5A3 \| COL23A1 \| COL20A1 \| COL22A1 \| COLQ \| COL11A2 \| COL28A1 \| COL5A2 \| COL4A3 \| COL9A3 \| COL4A1</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="M3" t="n">
-        <v>125</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>27</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>COL3A1 \| COL1A2 \| COL5A2 \| COL5A1 \| CD44 \| ITGB1 \| ITGA2 \| LUM \| COL6A3 \| BGN \| FN1 \| CRTAP \| COL6A1 \| SPARC \| COL11A1 \| RUNX2 \| COL6A2 \| P3H1 \| ITGA5 \| GP6 \| ADAMTS2 \| ITGB3 \| FBN1 \| ACTA2 \| DCN \| SERPINH1 \| POSTN</t>
-        </is>
+      <c r="R3" t="n">
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>37</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>COL7A1 \| COL13A1 \| COL9A1 \| COL15A1 \| COL27A1 \| COL25A1 \| COL17A1 \| COL2A1 \| COL4A2 \| COL3A1 \| COL18A1 \| COL4A5 \| EDA \| COL16A1 \| EMID1 \| COL1A2 \| COL6A1 \| COL4A4 \| COL4A6 \| COL21A1 \| COL5A1 \| COL9A2 \| COL11A1 \| COL24A1 \| COL6A2 \| COL26A1 \| COL5A3 \| COL23A1 \| COL20A1 \| COL22A1 \| COLQ \| COL11A2 \| COL28A1 \| COL5A2 \| COL4A3 \| COL9A3 \| COL4A1</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -760,86 +700,66 @@
           <t>AGRIN_HUMAN</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.98</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>2068</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
+          <t>LRP4 \| DAG1 \| MUSK \| HSPG2 \| DOK7 \| RAPSN \| NID1 \| FN1 \| PTPRS \| DMD \| NCAM1 \| BGN \| LRP2</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>27</v>
       </c>
-      <c r="Q4" t="n">
-        <v>13</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>LRP4 \| DAG1 \| MUSK \| HSPG2 \| DOK7 \| RAPSN \| NID1 \| FN1 \| PTPRS \| DMD \| NCAM1 \| BGN \| LRP2</t>
-        </is>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MEGF9 \| LAMA1 \| MEGF8 \| ATRNL1 \| LAMA4 \| ATRN \| LAMC3 \| USH2A \| LAMA2 \| LAMA3 \| LAMB3 \| NTN5 \| LAMB1 \| LAMC2 \| HSPG2 \| NTN4 \| EGFLAM \| NTN1 \| NTN3 \| LAMB2 \| LAMC1 \| LAMB4 \| TMEFF2 \| LAMA5 \| NTNG2 \| NTNG1 \| TMEFF1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>27</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>MEGF9 \| LAMA1 \| MEGF8 \| ATRNL1 \| LAMA4 \| ATRN \| LAMC3 \| USH2A \| LAMA2 \| LAMA3 \| LAMB3 \| NTN5 \| LAMB1 \| LAMC2 \| HSPG2 \| NTN4 \| EGFLAM \| NTN1 \| NTN3 \| LAMB2 \| LAMC1 \| LAMB4 \| TMEFF2 \| LAMA5 \| NTNG2 \| NTNG1 \| TMEFF1</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -859,63 +779,59 @@
           <t>TM11E_HUMAN</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.54</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>423</v>
       </c>
       <c r="H5" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>423</v>
+          <t>Cell membrane \| Secreted</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Cell membrane \| Secreted</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>41</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>TMPRSS11E \| TMPRSS11B \| TMPRSS11A \| ST14 \| TMPRSS6 \| TMPRSS11D \| PRSS21 \| PRSS41 \| TMPRSS11F \| HPN \| TMPRSS15 \| TMPRSS9 \| TMPRSS5 \| TMPRSS3 \| PRSS22 \| TMPRSS2 \| TMPRSS7 \| TMPRSS13</t>
+        </is>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -923,22 +839,6 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>18</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>TMPRSS11E \| TMPRSS11B \| TMPRSS11A \| ST14 \| TMPRSS6 \| TMPRSS11D \| PRSS21 \| PRSS41 \| TMPRSS11F \| HPN \| TMPRSS15 \| TMPRSS9 \| TMPRSS5 \| TMPRSS3 \| PRSS22 \| TMPRSS2 \| TMPRSS7 \| TMPRSS13</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -958,86 +858,66 @@
           <t>OSTP_HUMAN</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0.96</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>314</v>
       </c>
       <c r="H6" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>314</v>
+          <t>Secreted</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Secreted</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+          <t>ITGAV \| CD44 \| MMP3 \| ITGB1 \| FN1 \| ITGB3 \| BGLAP \| IBSP \| SPARC \| GSTM1 \| ITGA9 \| ITGA4 \| ITGB5 \| VTN \| MMP9 \| AP4M1 \| MMP7 \| IRF7 \| MGP \| DMP1 \| MEPE \| BMP2 \| ITGA8 \| RUNX2</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>TAF3</t>
+        </is>
       </c>
       <c r="Q6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ITGAV \| CD44 \| MMP3 \| ITGB1 \| FN1 \| ITGB3 \| BGLAP \| IBSP \| SPARC \| GSTM1 \| ITGA9 \| ITGA4 \| ITGB5 \| VTN \| MMP9 \| AP4M1 \| MMP7 \| IRF7 \| MGP \| DMP1 \| MEPE \| BMP2 \| ITGA8 \| RUNX2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>TAF3</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1057,88 +937,68 @@
           <t>SPR1A_HUMAN</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.35</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Downregulated</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>89</v>
       </c>
       <c r="H7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Downregulated</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>89</v>
+          <t>Cytoplasm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Cytoplasm</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
+          <t>SPRR1B \| IVL \| SPRR2B \| LOR</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>20</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>SPRR2G \| LCE2A \| LCE2D \| LCE5A \| LCE2C \| LCE2B \| LCE3B \| LCE1F \| LCE1D \| LCE1E \| SPRR3 \| KPLCE \| LELP1 \| PRR9 \| SPRR4 \| LCE3C \| LCE3A \| LCE3D \| LCE3E \| SPRR1B</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>SPRR1B \| IVL \| SPRR2B \| LOR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>SPRR2G \| LCE2A \| LCE2D \| LCE5A \| LCE2C \| LCE2B \| LCE3B \| LCE1F \| LCE1D \| LCE1E \| SPRR3 \| KPLCE \| LELP1 \| PRR9 \| SPRR4 \| LCE3C \| LCE3A \| LCE3D \| LCE3E \| SPRR1B</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1158,63 +1018,59 @@
           <t>A2ML1_HUMAN</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.52</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1454</v>
       </c>
       <c r="H8" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1454</v>
+          <t>Secreted</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Secreted</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>57</v>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>C5 \| PZP \| C3 \| CD109 \| A2M \| C4B \| C4A \| CPAMD8</t>
+        </is>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1222,22 +1078,6 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>C5 \| PZP \| C3 \| CD109 \| A2M \| C4B \| C4A \| CPAMD8</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1257,88 +1097,68 @@
           <t>SPR1B_HUMAN</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.33</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Downregulated</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>89</v>
       </c>
       <c r="H9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Downregulated</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>89</v>
+          <t>Cytoplasm</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Cytoplasm</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8</v>
+          <t>SPRR1A \| IVL \| SPRR2B \| TGM1 \| SPRR2A \| SPRR2D \| SPRR2E \| LOR</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>20</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>SPRR2G \| LCE2A \| LCE2D \| LCE5A \| LCE2C \| LCE2B \| LCE3B \| LCE1F \| LCE1D \| LCE1E \| SPRR3 \| KPLCE \| LELP1 \| PRR9 \| SPRR4 \| LCE3C \| LCE3A \| LCE3D \| LCE3E \| SPRR1A</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>SPRR1A \| IVL \| SPRR2B \| TGM1 \| SPRR2A \| SPRR2D \| SPRR2E \| LOR</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>SPRR2G \| LCE2A \| LCE2D \| LCE5A \| LCE2C \| LCE2B \| LCE3B \| LCE1F \| LCE1D \| LCE1E \| SPRR3 \| KPLCE \| LELP1 \| PRR9 \| SPRR4 \| LCE3C \| LCE3A \| LCE3D \| LCE3E \| SPRR1A</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1358,88 +1178,68 @@
           <t>SERPH_HUMAN</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.78</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>418</v>
+          <t>Endoplasmic reticulum lumen</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Endoplasmic reticulum lumen</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
+          <t>COL26A1 \| FKBP10 \| COL1A1 \| P3H1</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>36</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>SERPINB10 \| SERPINA1 \| SERPINA2 \| HEL57 \| SERPINB7 \| SERPINA11 \| SERPINA5 \| SERPINE3 \| SERPINB2 \| SERPINB3 \| SERPINB4 \| SERPINB12 \| SERPINI1 \| SERPINE1 \| SERPINA10 \| SERPINI2 \| SERPIND1 \| SERPINB13 \| SERPING1 \| SERPINC1 \| SERPINB11 \| SERPINA6 \| SERPINA9 \| SERPINA7 \| SERPINF2 \| SERPINA3 \| SERPINB5 \| SERPINB9 \| SERPINB6 \| HMSD \| SERPINA12 \| SERPINE2 \| AGT \| SERPINB8 \| SERPINA4 \| SERPINF1</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>COL26A1 \| FKBP10 \| COL1A1 \| P3H1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>36</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>SERPINB10 \| SERPINA1 \| SERPINA2 \| HEL57 \| SERPINB7 \| SERPINA11 \| SERPINA5 \| SERPINE3 \| SERPINB2 \| SERPINB3 \| SERPINB4 \| SERPINB12 \| SERPINI1 \| SERPINE1 \| SERPINA10 \| SERPINI2 \| SERPIND1 \| SERPINB13 \| SERPING1 \| SERPINC1 \| SERPINB11 \| SERPINA6 \| SERPINA9 \| SERPINA7 \| SERPINF2 \| SERPINA3 \| SERPINB5 \| SERPINB9 \| SERPINB6 \| HMSD \| SERPINA12 \| SERPINE2 \| AGT \| SERPINB8 \| SERPINA4 \| SERPINF1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1459,86 +1259,66 @@
           <t>VWF_HUMAN</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Downregulated</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2813</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Downregulated</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>2813</v>
-      </c>
-      <c r="L11" t="n">
-        <v>26</v>
+          <t>Secreted \| Secreted \| Extracellular space \| Extracellular matrix</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Secreted \| Secreted \| Extracellular space \| Extracellular matrix</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>F8 \| GP1BA \| SELP \| ITGA2B \| ITGB3 \| GP9 \| FN1 \| GP1BB \| ADAMTS13 \| GP6 \| GP5 \| ITGAV \| F3 \| F10 \| VTN \| F2 \| CXCL8 \| PLAT \| PF4 \| CLDN5 \| PECAM1 \| F9 \| THBD \| F7 \| ANGPT2</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>19</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CHRDL1 \| BMPER \| VWCE \| CHRDL2 \| VWC2L \| VWC2 \| ZAN \| KCP \| CHRD \| OTOGL \| FCGBP \| TECTA \| OTOG \| MUC6 \| CRIM1 \| MUC5B \| nan \| MUC2 \| MUC5AC</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>F8 \| GP1BA \| SELP \| ITGA2B \| ITGB3 \| GP9 \| FN1 \| GP1BB \| ADAMTS13 \| GP6 \| GP5 \| ITGAV \| F3 \| F10 \| VTN \| F2 \| CXCL8 \| PLAT \| PF4 \| CLDN5 \| PECAM1 \| F9 \| THBD \| F7 \| ANGPT2</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>19</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>CHRDL1 \| BMPER \| VWCE \| CHRDL2 \| VWC2L \| VWC2 \| ZAN \| KCP \| CHRD \| OTOGL \| FCGBP \| TECTA \| OTOG \| MUC6 \| CRIM1 \| MUC5B \| nan \| MUC2 \| MUC5AC</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1558,84 +1338,64 @@
           <t>TIMP2_HUMAN</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Downregulated</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>220</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Downregulated</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>220</v>
+          <t>Secreted</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Secreted</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>10</v>
+          <t>MMP14 \| MMP2 \| MMP9 \| MMP10 \| MMP3 \| MMP13 \| MMP7 \| HPX \| MMP1 \| TIMP3 \| MMP16</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>TIMP3 \| TIMP4 \| TIMP1</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>11</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>MMP14 \| MMP2 \| MMP9 \| MMP10 \| MMP3 \| MMP13 \| MMP7 \| HPX \| MMP1 \| TIMP3 \| MMP16</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>TIMP3 \| TIMP4 \| TIMP1</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1655,84 +1415,64 @@
           <t>NGAL_HUMAN</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0.97</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>Upregulated</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>198</v>
       </c>
       <c r="H13" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Upregulated</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>198</v>
+          <t>Secreted \| Cytoplasmic granule lumen \| Cytoplasmic vesicle lumen</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Secreted \| Cytoplasmic granule lumen \| Cytoplasmic vesicle lumen</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>14</v>
+          <t>SLC22A17 \| MMP9 \| LTF \| CTLA4 \| HAMP \| LRP2 \| APP \| FN1 \| CST3 \| HAVCR1 \| SLC3A2 \| MMP2</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>LCN12 \| PTGDS \| nan \| LCN10 \| LCN8 \| LCN1 \| LCNL1 \| OBP2A \| PAEP \| LCN15 \| LCN6 \| OBP2B</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>12</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>SLC22A17 \| MMP9 \| LTF \| CTLA4 \| HAMP \| LRP2 \| APP \| FN1 \| CST3 \| HAVCR1 \| SLC3A2 \| MMP2</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>12</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>LCN12 \| PTGDS \| nan \| LCN10 \| LCN8 \| LCN1 \| LCNL1 \| OBP2A \| PAEP \| LCN15 \| LCN6 \| OBP2B</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
         <v>2</v>
       </c>
     </row>

--- a/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
+++ b/notebooks/other_analyses/antigens/data/results_screenEC/general_summary.xlsx
@@ -573,10 +573,8 @@
           <t>Cell membrane \| Membrane \| Perikaryon \| Cell projection \| Growth cone \| Membrane \| Clathrin-coated pit \| Early endosome \| Cytoplasmic vesicle \| Endoplasmic reticulum \| Golgi apparatus \| Early endosome \| Early endosome \| Secreted \| Cell surface \| Cell surface \| Nucleus \| Cytoplasm</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K2" t="n">
+        <v>179</v>
       </c>
       <c r="L2" t="n">
         <v>26</v>
@@ -650,10 +648,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K3" t="n">
+        <v>199</v>
       </c>
       <c r="L3" t="n">
         <v>24</v>
@@ -727,10 +723,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K4" t="n">
+        <v>590</v>
       </c>
       <c r="L4" t="n">
         <v>27</v>
@@ -806,10 +800,8 @@
           <t>Cell membrane \| Secreted</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K5" t="n">
+        <v>71</v>
       </c>
       <c r="L5" t="n">
         <v>41</v>
@@ -885,10 +877,8 @@
           <t>Secreted</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K6" t="n">
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>11</v>
@@ -964,10 +954,8 @@
           <t>Cytoplasm</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K7" t="n">
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1045,10 +1033,8 @@
           <t>Secreted</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K8" t="n">
+        <v>343</v>
       </c>
       <c r="L8" t="n">
         <v>57</v>
@@ -1124,10 +1110,8 @@
           <t>Cytoplasm</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K9" t="n">
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1205,10 +1189,8 @@
           <t>Endoplasmic reticulum lumen</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K10" t="n">
+        <v>94</v>
       </c>
       <c r="L10" t="n">
         <v>35</v>
@@ -1365,10 +1347,8 @@
           <t>Secreted</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K12" t="n">
+        <v>51</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -1442,10 +1422,8 @@
           <t>Secreted \| Cytoplasmic granule lumen \| Cytoplasmic vesicle lumen</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="K13" t="n">
+        <v>41</v>
       </c>
       <c r="L13" t="n">
         <v>14</v>
